--- a/Summary List for 1891652500-CK3.xlsx
+++ b/Summary List for 1891652500-CK3.xlsx
@@ -10,12 +10,13 @@
     <sheet name="750" sheetId="1" r:id="rId1"/>
     <sheet name="1200" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Summary List for 1891652500-CK3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +126,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BP P9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>68.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68.350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12T16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,6 +154,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>30.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>G35T2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +166,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>63.625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BP P16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,6 +214,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.780</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +230,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>70.793</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12.1, 12.6, 13.3, 13.6, 14.9, 15, 15.5, 15.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>55.461</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.332</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>24T32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +266,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>17.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>c15002317, c150023179</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +286,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,14 +306,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>15, 15.6, 16.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>56.870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.491</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12+6.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>16.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150023655, C150023663</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +362,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14.7, 15.3, 17.1, 18.6, 18.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>53.950</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150024163, C150024164, C150024165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +414,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.930</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,14 +430,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>14.2, 15, 16.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>56.670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-71.863</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12+5.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>17.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150024629, C150024634</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +474,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.584</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,14 +490,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>72.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>15.8, 17.8, 18.2, 18.5, 19.2, 19.6, 19.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>52.952</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.636</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.268</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12+9.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>21.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150023956, C150023962 , C150023965</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +542,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,10 +558,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>72.577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12.7, 13, 13.9, 16.8, 18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>54.270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>15X2T32 , 15T20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,6 +586,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1, 2, 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,6 +602,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,14 +618,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>72.934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>15.7, 16.2, 16.7, 17, 17.5, 17.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>55.134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-72.934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>12+7.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-15.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150024476, C150024477, C150024480</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +662,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,18 +674,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>73.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13.6, 14.1, 14.7, 15.35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>57.346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.944</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-100.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>73.647</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>74.004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71.860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,18 +746,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>74.175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>16.601, 16.9, 17, 17.3, 17.4, 17.6, 18, 18.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>53.860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3.6+12+4.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>23.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-21.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C150024519, C150024521, C150024522</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>71.570</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,10 +798,38 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>13.3, 15.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56.750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-19.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>83.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +846,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>73.675</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-83.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>C18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,6 +867,14 @@
   </si>
   <si>
     <t>C21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -506,12 +903,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="6">
@@ -604,27 +1004,27 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,11 +1356,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -968,12 +1420,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -981,11 +1435,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3"/>
       <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3"/>
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1464,9 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1021,7 +1479,9 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1037,7 +1497,9 @@
       <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1509,9 @@
       <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1069,677 +1533,824 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G5" s="7">
-        <v>68.35</v>
+      <c r="E5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>68.35</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8"/>
+      <c r="I5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S5" s="7"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="7">
-        <v>30.2</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0.00</v>
+      <c r="T5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G6" s="7">
-        <v>63.625</v>
+      <c r="E6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S6" s="7"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0.00</v>
+      <c r="T6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G7" s="7">
-        <v>63.625</v>
+      <c r="E7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="I7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S7" s="7"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0.00</v>
+      <c r="T7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G8" s="7">
-        <v>63.625</v>
+      <c r="E8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S8" s="7"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0.00</v>
+      <c r="T8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>63.625</v>
+      <c r="E9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S9" s="7"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <v>0.00</v>
+      <c r="T9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G10" s="7">
-        <v>63.625</v>
+      <c r="E10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S10" s="7"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0.00</v>
+      <c r="T10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G11" s="7">
-        <v>63.625</v>
+      <c r="E11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>0</v>
-      </c>
-      <c r="L11" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S11" s="7"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0.00</v>
+      <c r="T11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="7"/>
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G12" s="7">
-        <v>63.625</v>
+      <c r="E12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>0.00</v>
+      <c r="T12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G13" s="7">
-        <v>63.625</v>
+      <c r="E13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0.00</v>
+      <c r="T13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>63.625</v>
+      <c r="E14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.00</v>
+      <c r="T14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G15" s="7">
-        <v>63.625</v>
+      <c r="E15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8"/>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0.00</v>
+      <c r="T15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y15" s="7"/>
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G16" s="7">
-        <v>63.625</v>
+      <c r="E16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>63.625</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8"/>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q16" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7">
-        <v>28.1123</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0.00</v>
+      <c r="T16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
-    <row r="17" spans="1:26"/>
+    <row r="17" spans="1:26">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
@@ -1792,11 +2403,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:26"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
         <v>1</v>
@@ -1804,12 +2467,14 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="E3"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1817,11 +2482,13 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
+      <c r="P3"/>
       <c r="Q3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
+      <c r="T3"/>
       <c r="U3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1844,7 +2511,9 @@
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1857,7 +2526,9 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="K4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1873,7 +2544,9 @@
       <c r="O4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="6"/>
+      <c r="P4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1883,7 +2556,9 @@
       <c r="S4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="6"/>
+      <c r="T4" s="6" t="s">
+        <v>-1</v>
+      </c>
       <c r="U4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1905,1457 +2580,1724 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7">
-        <v>71.780</v>
-      </c>
-      <c r="G5" s="7">
-        <v>70.793</v>
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="7">
-        <v>55.461</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0.987</v>
-      </c>
-      <c r="L5" s="7">
-        <v>15.332</v>
-      </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="O5" s="7">
-        <v>3.8</v>
-      </c>
-      <c r="P5" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q5" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="7">
-        <v>17.3423</v>
-      </c>
-      <c r="V5" s="7">
-        <v>20</v>
-      </c>
-      <c r="W5" s="7">
-        <v>2.65</v>
+        <v>61</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="X5" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7">
-        <v>71.641</v>
-      </c>
-      <c r="G6" s="7">
-        <v>71.15</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>56.87</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>0.491</v>
-      </c>
-      <c r="L6" s="7">
-        <v>14.28</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="O6" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="P6" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="7">
-        <v>16.1524</v>
-      </c>
-      <c r="V6" s="7">
-        <v>21</v>
-      </c>
-      <c r="W6" s="7">
-        <v>3.83</v>
+        <v>78</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="X6" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y6" s="7" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="7" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7">
-        <v>71.780</v>
-      </c>
-      <c r="G7" s="7">
-        <v>71.507</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="7">
-        <v>53.95</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0.273</v>
-      </c>
-      <c r="L7" s="7">
-        <v>17.557</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="O7" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="7">
-        <v>19</v>
-      </c>
-      <c r="T7" s="8"/>
-      <c r="U7" s="7">
-        <v>19.8591</v>
-      </c>
-      <c r="V7" s="7">
-        <v>26</v>
-      </c>
-      <c r="W7" s="7">
-        <v>30.90</v>
+      <c r="S7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="X7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="Z7" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7">
-        <v>71.930</v>
-      </c>
-      <c r="G8" s="7">
-        <v>71.863</v>
+        <v>102</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" s="7">
-        <v>56.67</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>-71.863</v>
-      </c>
-      <c r="L8" s="7">
-        <v>15.193</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="O8" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="P8" s="8"/>
+        <v>104</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="7">
-        <v>17.1851</v>
-      </c>
-      <c r="V8" s="7">
-        <v>22</v>
-      </c>
-      <c r="W8" s="7">
-        <v>4.81</v>
+        <v>108</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7">
-        <v>71.584</v>
-      </c>
-      <c r="G9" s="7">
-        <v>72.22</v>
+        <v>117</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>52.952</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>-0.636</v>
-      </c>
-      <c r="L9" s="7">
-        <v>19.268</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7">
-        <v>3.6</v>
-      </c>
-      <c r="O9" s="7">
-        <v>2</v>
-      </c>
-      <c r="P9" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" s="8"/>
-      <c r="U9" s="7">
-        <v>21.7944</v>
-      </c>
-      <c r="V9" s="7">
-        <v>24</v>
-      </c>
-      <c r="W9" s="7">
-        <v>10.10</v>
+        <v>125</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="X9" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y9" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Z9" s="7" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="7" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7">
-        <v>71.830</v>
-      </c>
-      <c r="G10" s="7">
-        <v>72.577</v>
+        <v>134</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54.27</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>-0.747</v>
-      </c>
-      <c r="L10" s="7">
-        <v>18.307</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="O10" s="7">
-        <v>2</v>
-      </c>
-      <c r="P10" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T10" s="8"/>
-      <c r="U10" s="7">
-        <v>20.7074</v>
-      </c>
-      <c r="V10" s="7">
-        <v>24</v>
-      </c>
-      <c r="W10" s="7">
-        <v>3.29</v>
+        <v>141</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7">
-        <v>71.620</v>
-      </c>
-      <c r="G11" s="7">
-        <v>72.934</v>
+        <v>149</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="7">
-        <v>55.134</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>-72.934</v>
-      </c>
-      <c r="L11" s="7">
-        <v>17.8</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
-        <v>2.2</v>
-      </c>
-      <c r="O11" s="7">
-        <v>2</v>
-      </c>
-      <c r="P11" s="8"/>
+        <v>151</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="T11" s="8"/>
-      <c r="U11" s="7">
-        <v>20.1339</v>
-      </c>
-      <c r="V11" s="7">
-        <v>17</v>
-      </c>
-      <c r="W11" s="7">
-        <v>-15.60</v>
+        <v>155</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="7" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="Z11" s="7" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7">
-        <v>71.580</v>
-      </c>
-      <c r="G12" s="7">
-        <v>73.29</v>
+      <c r="E12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7">
-        <v>57.346</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>-1.71</v>
-      </c>
-      <c r="L12" s="7">
-        <v>15.944</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="O12" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="P12" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="7">
-        <v>18.0346</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7">
-        <v>-100.00</v>
+      <c r="T12" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="X12" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="7" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G13" s="7">
-        <v>73.647</v>
+      <c r="E13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>73.647</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S13" s="7"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="7">
-        <v>83.3036</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0.00</v>
+      <c r="T13" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X13" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="7"/>
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="7" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>74.004</v>
+      <c r="E14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>74.004</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R14" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S14" s="7"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="7">
-        <v>83.7074</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0.00</v>
+      <c r="T14" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X14" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="7" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7">
-        <v>71.860</v>
-      </c>
-      <c r="G15" s="7">
-        <v>74.175</v>
+        <v>181</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="7">
-        <v>53.86</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>-2.315</v>
-      </c>
-      <c r="L15" s="7">
-        <v>20.315</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7">
-        <v>1.401</v>
-      </c>
-      <c r="O15" s="7">
-        <v>2</v>
-      </c>
-      <c r="P15" s="8"/>
+        <v>183</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q15" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R15" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="7">
-        <v>22.9787</v>
-      </c>
-      <c r="V15" s="7">
-        <v>18</v>
-      </c>
-      <c r="W15" s="7">
-        <v>-21.70</v>
+        <v>188</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y15" s="7" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G16" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R16" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S16" s="7"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="7">
-        <v>83.9008</v>
-      </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>-83.90</v>
+      <c r="T16" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y16" s="7"/>
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="7" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G17" s="7">
-        <v>74.175</v>
+      <c r="E17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8"/>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S17" s="7"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="7">
-        <v>83.9008</v>
-      </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0.00</v>
+      <c r="T17" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y17" s="7"/>
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="7" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G18" s="7">
-        <v>74.175</v>
+      <c r="E18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8"/>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R18" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="7">
-        <v>83.9008</v>
-      </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0.00</v>
+      <c r="T18" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="7" t="s">
-        <v>109</v>
+        <v>204</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G19" s="7">
-        <v>74.175</v>
+      <c r="E19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="8"/>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S19" s="7"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="7">
-        <v>83.9008</v>
-      </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0.00</v>
+      <c r="T19" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G20" s="7">
-        <v>74.175</v>
+      <c r="E20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>74.175</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8"/>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R20" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="7">
-        <v>83.9008</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0.00</v>
+      <c r="T20" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X20" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y20" s="7"/>
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="7" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G21" s="7">
-        <v>73.675</v>
+      <c r="E21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>73.675</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8"/>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q21" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S21" s="7"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="7">
-        <v>83.3353</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <v>-83.33</v>
+      <c r="T21" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="X21" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="7" t="s">
-        <v>112</v>
+        <v>209</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G22" s="7">
-        <v>73.675</v>
+      <c r="E22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="7">
-        <v>0</v>
-      </c>
-      <c r="L22" s="7">
-        <v>73.675</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8"/>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q22" s="7" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="R22" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="7">
-        <v>83.3353</v>
-      </c>
-      <c r="V22" s="7">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <v>0.00</v>
+      <c r="T22" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="7" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G23" s="7">
-        <v>73.675</v>
+      <c r="E23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>73.675</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8"/>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q23" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="7">
-        <v>83.3353</v>
-      </c>
-      <c r="V23" s="7">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0.00</v>
+      <c r="T23" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X23" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="7" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G24" s="7">
-        <v>73.675</v>
+      <c r="E24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="7">
-        <v>0</v>
-      </c>
-      <c r="L24" s="7">
-        <v>73.675</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8"/>
+      <c r="I24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q24" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R24" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S24" s="7"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="7">
-        <v>83.3353</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
-        <v>0.00</v>
+      <c r="T24" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X24" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="7" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G25" s="7">
-        <v>73.175</v>
+      <c r="E25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>73.175</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="8"/>
+      <c r="I25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q25" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S25" s="7"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="7">
-        <v>82.7697</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0.00</v>
+      <c r="T25" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X25" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G26" s="7">
-        <v>73.175</v>
+      <c r="E26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="7">
-        <v>0</v>
-      </c>
-      <c r="L26" s="7">
-        <v>73.175</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8"/>
+      <c r="I26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q26" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S26" s="7"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="7">
-        <v>82.7697</v>
-      </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0.00</v>
+      <c r="T26" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X26" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="7" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G27" s="7">
-        <v>73.175</v>
+      <c r="E27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>73.175</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8"/>
+      <c r="I27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S27" s="7"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="7">
-        <v>82.7697</v>
-      </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0.00</v>
+      <c r="T27" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X27" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="7" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7">
-        <v>0.000</v>
-      </c>
-      <c r="G28" s="7">
-        <v>73.175</v>
+      <c r="E28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7">
-        <v>0</v>
-      </c>
-      <c r="L28" s="7">
-        <v>73.175</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="8"/>
+      <c r="I28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>-1</v>
+      </c>
       <c r="Q28" s="7" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="S28" s="7"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="7">
-        <v>82.7697</v>
-      </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0.00</v>
+      <c r="T28" s="8" t="s">
+        <v>-1</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="X28" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:26"/>
+    <row r="29" spans="1:26">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:D3"/>
